--- a/work/sounds/Sounds.xlsx
+++ b/work/sounds/Sounds.xlsx
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2017,8 +2017,8 @@
       <c r="A75" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>11</v>
+      <c r="B75" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>10</v>
@@ -2031,8 +2031,8 @@
       <c r="A76" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>11</v>
+      <c r="B76" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>10</v>
@@ -2541,8 +2541,8 @@
       <c r="A112" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>11</v>
+      <c r="B112" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>10</v>
@@ -2561,8 +2561,8 @@
       <c r="C113" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>11</v>
+      <c r="D113" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
@@ -2583,56 +2583,56 @@
       <c r="A115" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>11</v>
+      <c r="B115" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>11</v>
+      <c r="D115" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>11</v>
+      <c r="B116" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>11</v>
+      <c r="D116" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>11</v>
+      <c r="B117" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>11</v>
+      <c r="D117" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>11</v>
+      <c r="B118" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>11</v>
+      <c r="D118" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
@@ -2645,8 +2645,8 @@
       <c r="C119" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>11</v>
+      <c r="D119" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
@@ -2659,8 +2659,8 @@
       <c r="C120" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>11</v>
+      <c r="D120" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
@@ -2673,8 +2673,8 @@
       <c r="C121" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>11</v>
+      <c r="D121" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
@@ -2695,8 +2695,8 @@
       <c r="A123" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>11</v>
+      <c r="B123" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>10</v>
@@ -3009,8 +3009,8 @@
       <c r="C145" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>11</v>
+      <c r="D145" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">

--- a/work/sounds/Sounds.xlsx
+++ b/work/sounds/Sounds.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="202">
   <si>
     <t>others/bush_cut</t>
   </si>
@@ -615,6 +615,21 @@
   </si>
   <si>
     <t>Il faut encore modifier la version alttp pour que cela ressemble plus à la version GB</t>
+  </si>
+  <si>
+    <t>Son à créer en version SNES</t>
+  </si>
+  <si>
+    <t>Ne sera pas utilisé normalement dans le remake (à confirmer)</t>
+  </si>
+  <si>
+    <t>Attention à vérifier ce que cela donne car les deux sont ne sont pas de même durée</t>
+  </si>
+  <si>
+    <t>A fabriquer pour SNES</t>
+  </si>
+  <si>
+    <t>Son déjà créé par Farockt</t>
   </si>
 </sst>
 </file>
@@ -674,12 +689,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -962,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1463,8 +1479,8 @@
       <c r="C35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>11</v>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -1873,7 +1889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>75</v>
       </c>
@@ -1887,7 +1903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="4" t="s">
         <v>76</v>
       </c>
@@ -1901,7 +1917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>77</v>
       </c>
@@ -1915,7 +1931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="4" t="s">
         <v>78</v>
       </c>
@@ -1929,7 +1945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>79</v>
       </c>
@@ -1943,7 +1959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="4" t="s">
         <v>80</v>
       </c>
@@ -1957,7 +1973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>81</v>
       </c>
@@ -1971,7 +1987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="4" t="s">
         <v>82</v>
       </c>
@@ -1981,11 +1997,11 @@
       <c r="C72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D72" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>83</v>
       </c>
@@ -1998,8 +2014,11 @@
       <c r="D73" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="4" t="s">
         <v>84</v>
       </c>
@@ -2013,7 +2032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>85</v>
       </c>
@@ -2027,7 +2046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="4" t="s">
         <v>86</v>
       </c>
@@ -2041,7 +2060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>4</v>
       </c>
@@ -2055,7 +2074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="4" t="s">
         <v>87</v>
       </c>
@@ -2069,21 +2088,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E79" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="4" t="s">
         <v>5</v>
       </c>
@@ -2107,8 +2129,8 @@
       <c r="C81" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>11</v>
+      <c r="D81" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
@@ -2121,8 +2143,8 @@
       <c r="C82" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>11</v>
+      <c r="D82" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
@@ -2208,8 +2230,8 @@
       <c r="C88" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>11</v>
+      <c r="D88" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
@@ -2222,8 +2244,11 @@
       <c r="C89" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>11</v>
+      <c r="D89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
@@ -2250,8 +2275,8 @@
       <c r="C91" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>11</v>
+      <c r="D91" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
@@ -2309,8 +2334,8 @@
       <c r="C95" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>11</v>
+      <c r="D95" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
@@ -2323,11 +2348,11 @@
       <c r="C96" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D96" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>105</v>
       </c>
@@ -2340,8 +2365,11 @@
       <c r="D97" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E97" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="4" t="s">
         <v>106</v>
       </c>
@@ -2355,7 +2383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
         <v>107</v>
       </c>
@@ -2365,11 +2393,14 @@
       <c r="C99" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="4" t="s">
         <v>108</v>
       </c>
@@ -2383,7 +2414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
         <v>109</v>
       </c>
@@ -2393,11 +2424,11 @@
       <c r="C101" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D101" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="4" t="s">
         <v>110</v>
       </c>
@@ -2410,8 +2441,11 @@
       <c r="D102" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E102" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
         <v>111</v>
       </c>
@@ -2424,8 +2458,11 @@
       <c r="D103" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E103" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="4" t="s">
         <v>112</v>
       </c>
@@ -2438,8 +2475,11 @@
       <c r="D104" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E104" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
         <v>113</v>
       </c>
@@ -2452,8 +2492,11 @@
       <c r="D105" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E105" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A106" s="4" t="s">
         <v>114</v>
       </c>
@@ -2466,8 +2509,11 @@
       <c r="D106" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E106" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
         <v>115</v>
       </c>
@@ -2480,8 +2526,11 @@
       <c r="D107" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E107" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="4" t="s">
         <v>116</v>
       </c>
@@ -2494,8 +2543,11 @@
       <c r="D108" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="4" t="s">
         <v>117</v>
       </c>
@@ -2508,8 +2560,11 @@
       <c r="D109" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E109" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="4" t="s">
         <v>118</v>
       </c>
@@ -2523,7 +2578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" s="4" t="s">
         <v>119</v>
       </c>
@@ -2536,8 +2591,11 @@
       <c r="D111" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E111" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A112" s="4" t="s">
         <v>120</v>
       </c>
@@ -2551,7 +2609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
         <v>121</v>
       </c>
@@ -2565,7 +2623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A114" s="4" t="s">
         <v>122</v>
       </c>
@@ -2578,8 +2636,11 @@
       <c r="D114" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E114" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" s="4" t="s">
         <v>123</v>
       </c>
@@ -2593,7 +2654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" s="4" t="s">
         <v>124</v>
       </c>
@@ -2607,7 +2668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" s="4" t="s">
         <v>125</v>
       </c>
@@ -2621,7 +2682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" s="4" t="s">
         <v>126</v>
       </c>
@@ -2635,7 +2696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" s="4" t="s">
         <v>127</v>
       </c>
@@ -2649,7 +2710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" s="4" t="s">
         <v>128</v>
       </c>
@@ -2663,7 +2724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" s="4" t="s">
         <v>129</v>
       </c>
@@ -2677,7 +2738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" s="4" t="s">
         <v>130</v>
       </c>
@@ -2691,7 +2752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" s="4" t="s">
         <v>131</v>
       </c>
@@ -2701,11 +2762,11 @@
       <c r="C123" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D123" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="4" t="s">
         <v>132</v>
       </c>
@@ -2719,7 +2780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" s="4" t="s">
         <v>133</v>
       </c>
@@ -2733,7 +2794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" s="4" t="s">
         <v>134</v>
       </c>
@@ -2747,7 +2808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" s="4" t="s">
         <v>135</v>
       </c>
@@ -2761,7 +2822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" s="4" t="s">
         <v>136</v>
       </c>
@@ -2771,11 +2832,11 @@
       <c r="C128" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D128" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" s="4" t="s">
         <v>137</v>
       </c>
@@ -2785,11 +2846,11 @@
       <c r="C129" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D129" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" s="4" t="s">
         <v>138</v>
       </c>
@@ -2802,8 +2863,11 @@
       <c r="D130" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E130" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
         <v>139</v>
       </c>
@@ -2813,11 +2877,11 @@
       <c r="C131" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D131" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" s="4" t="s">
         <v>140</v>
       </c>
@@ -2830,8 +2894,11 @@
       <c r="D132" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E132" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" s="4" t="s">
         <v>141</v>
       </c>
@@ -2844,8 +2911,11 @@
       <c r="D133" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E133" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" s="4" t="s">
         <v>142</v>
       </c>
@@ -2858,8 +2928,11 @@
       <c r="D134" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E134" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" s="4" t="s">
         <v>143</v>
       </c>
@@ -2872,8 +2945,11 @@
       <c r="D135" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E135" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" s="4" t="s">
         <v>0</v>
       </c>
@@ -2887,7 +2963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" s="4" t="s">
         <v>144</v>
       </c>
@@ -2900,8 +2976,11 @@
       <c r="D137" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E137" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" s="4" t="s">
         <v>145</v>
       </c>
@@ -2915,7 +2994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" s="4" t="s">
         <v>9</v>
       </c>
@@ -2929,7 +3008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" s="4" t="s">
         <v>146</v>
       </c>
@@ -2943,7 +3022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" s="4" t="s">
         <v>147</v>
       </c>
@@ -2956,8 +3035,11 @@
       <c r="D141" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E141" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" s="4" t="s">
         <v>148</v>
       </c>
@@ -2967,11 +3049,11 @@
       <c r="C142" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D142" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" s="4" t="s">
         <v>149</v>
       </c>
@@ -2984,8 +3066,11 @@
       <c r="D143" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E143" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" s="4" t="s">
         <v>150</v>
       </c>
@@ -2998,8 +3083,11 @@
       <c r="D144" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E144" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" s="4" t="s">
         <v>151</v>
       </c>
@@ -3013,7 +3101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" s="4" t="s">
         <v>152</v>
       </c>
@@ -3023,11 +3111,11 @@
       <c r="C146" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D146" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D146" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" s="4" t="s">
         <v>153</v>
       </c>
@@ -3040,22 +3128,28 @@
       <c r="D147" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A148" s="4" t="s">
+      <c r="E147" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A148" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E148" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" s="4" t="s">
         <v>155</v>
       </c>
@@ -3069,7 +3163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" s="4" t="s">
         <v>156</v>
       </c>
@@ -3083,7 +3177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" s="4" t="s">
         <v>157</v>
       </c>
@@ -3097,7 +3191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" s="4" t="s">
         <v>158</v>
       </c>
@@ -3111,7 +3205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" s="4" t="s">
         <v>159</v>
       </c>
@@ -3125,7 +3219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" s="4" t="s">
         <v>160</v>
       </c>
@@ -3139,7 +3233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" s="4" t="s">
         <v>161</v>
       </c>
@@ -3153,7 +3247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" s="4" t="s">
         <v>162</v>
       </c>
@@ -3167,7 +3261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" s="4" t="s">
         <v>163</v>
       </c>
@@ -3181,7 +3275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" s="4" t="s">
         <v>164</v>
       </c>
@@ -3195,7 +3289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" s="4" t="s">
         <v>165</v>
       </c>
@@ -3209,7 +3303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" s="4" t="s">
         <v>166</v>
       </c>

--- a/work/sounds/Sounds.xlsx
+++ b/work/sounds/Sounds.xlsx
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2269,8 +2269,8 @@
       <c r="A91" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>11</v>
+      <c r="B91" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>10</v>

--- a/work/sounds/Sounds.xlsx
+++ b/work/sounds/Sounds.xlsx
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3074,8 +3074,8 @@
       <c r="A144" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>11</v>
+      <c r="B144" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>10</v>
@@ -3105,8 +3105,8 @@
       <c r="A146" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>11</v>
+      <c r="B146" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>10</v>

--- a/work/sounds/Sounds.xlsx
+++ b/work/sounds/Sounds.xlsx
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2770,8 +2770,8 @@
       <c r="A124" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>11</v>
+      <c r="B124" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>10</v>
@@ -2936,8 +2936,8 @@
       <c r="A135" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>11</v>
+      <c r="B135" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>10</v>
@@ -2984,8 +2984,8 @@
       <c r="A138" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>11</v>
+      <c r="B138" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>10</v>
@@ -3223,8 +3223,8 @@
       <c r="A154" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>11</v>
+      <c r="B154" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>10</v>
@@ -3237,8 +3237,8 @@
       <c r="A155" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>11</v>
+      <c r="B155" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>10</v>

--- a/work/sounds/Sounds.xlsx
+++ b/work/sounds/Sounds.xlsx
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2418,8 +2418,8 @@
       <c r="A101" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>11</v>
+      <c r="B101" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>10</v>

--- a/work/sounds/Sounds.xlsx
+++ b/work/sounds/Sounds.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="202">
   <si>
     <t>others/bush_cut</t>
   </si>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1207,8 +1207,8 @@
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1249,8 +1249,8 @@
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -2182,8 +2182,8 @@
       <c r="A85" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>11</v>
+      <c r="B85" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>10</v>
@@ -2283,8 +2283,8 @@
       <c r="A92" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>11</v>
+      <c r="B92" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>10</v>
@@ -2297,8 +2297,8 @@
       <c r="A93" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>11</v>
+      <c r="B93" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>10</v>
@@ -2387,8 +2387,8 @@
       <c r="A99" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>11</v>
+      <c r="B99" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>10</v>
@@ -2568,8 +2568,8 @@
       <c r="A110" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>11</v>
+      <c r="B110" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>10</v>
@@ -2613,8 +2613,8 @@
       <c r="A113" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>11</v>
+      <c r="B113" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>10</v>
@@ -2700,8 +2700,8 @@
       <c r="A119" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>11</v>
+      <c r="B119" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>10</v>
@@ -2714,8 +2714,8 @@
       <c r="A120" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>11</v>
+      <c r="B120" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>10</v>
@@ -2728,8 +2728,8 @@
       <c r="A121" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>11</v>
+      <c r="B121" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>10</v>
@@ -2742,8 +2742,8 @@
       <c r="A122" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>11</v>
+      <c r="B122" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>10</v>
@@ -3405,14 +3405,17 @@
       <c r="A167" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>11</v>
+      <c r="B167" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="E167" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">

--- a/work/sounds/Sounds.xlsx
+++ b/work/sounds/Sounds.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="202">
   <si>
     <t>others/bush_cut</t>
   </si>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B98" activeCellId="1" sqref="C99 B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1665,7 +1665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>59</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
         <v>60</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>61</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="4" t="s">
         <v>62</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>63</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="4" t="s">
         <v>64</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>65</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="4" t="s">
         <v>66</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>67</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="4" t="s">
         <v>68</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>69</v>
       </c>
@@ -1819,12 +1819,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>11</v>
+      <c r="B60" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
@@ -1832,8 +1832,11 @@
       <c r="D60" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E60" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>71</v>
       </c>
@@ -1846,8 +1849,11 @@
       <c r="D61" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="4" t="s">
         <v>72</v>
       </c>
@@ -1861,7 +1867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>73</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="4" t="s">
         <v>74</v>
       </c>
@@ -2373,8 +2379,8 @@
       <c r="A98" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>11</v>
+      <c r="B98" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>10</v>
@@ -3321,8 +3327,8 @@
       <c r="A161" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>11</v>
+      <c r="B161" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>10</v>
@@ -3335,8 +3341,8 @@
       <c r="A162" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>11</v>
+      <c r="B162" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>10</v>
@@ -3349,8 +3355,8 @@
       <c r="A163" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>11</v>
+      <c r="B163" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>10</v>
@@ -3363,8 +3369,8 @@
       <c r="A164" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>11</v>
+      <c r="B164" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>10</v>

--- a/work/sounds/Sounds.xlsx
+++ b/work/sounds/Sounds.xlsx
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B98" activeCellId="1" sqref="C99 B98"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2334,8 +2334,8 @@
       <c r="A95" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>11</v>
+      <c r="B95" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>10</v>
@@ -2348,8 +2348,8 @@
       <c r="A96" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>11</v>
+      <c r="B96" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>10</v>
@@ -2790,8 +2790,8 @@
       <c r="A125" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>11</v>
+      <c r="B125" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>10</v>
@@ -2832,8 +2832,8 @@
       <c r="A128" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>11</v>
+      <c r="B128" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>10</v>
@@ -2846,8 +2846,8 @@
       <c r="A129" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>11</v>
+      <c r="B129" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>10</v>
@@ -3004,8 +3004,8 @@
       <c r="A139" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>11</v>
+      <c r="B139" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>10</v>
@@ -3018,8 +3018,8 @@
       <c r="A140" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>11</v>
+      <c r="B140" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>10</v>
@@ -3032,8 +3032,8 @@
       <c r="A141" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>11</v>
+      <c r="B141" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>10</v>
@@ -3125,8 +3125,8 @@
       <c r="A147" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>11</v>
+      <c r="B147" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>10</v>
@@ -3442,8 +3442,8 @@
       <c r="A169" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>11</v>
+      <c r="B169" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>10</v>
@@ -3456,8 +3456,8 @@
       <c r="A170" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>11</v>
+      <c r="B170" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>10</v>
@@ -3529,8 +3529,8 @@
       <c r="A175" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>11</v>
+      <c r="B175" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>10</v>

--- a/work/sounds/Sounds.xlsx
+++ b/work/sounds/Sounds.xlsx
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1095,8 +1095,8 @@
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1123,8 +1123,8 @@
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
